--- a/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimMappingMotor.xlsx
+++ b/bin/Debug/netcoreapp3.1/RequiredFiles/ClaimMappingMotor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Key</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Recovery From T.P.</t>
   </si>
   <si>
-    <t>Cause Of Loss</t>
-  </si>
-  <si>
     <t>eBao Class</t>
   </si>
   <si>
@@ -218,6 +215,15 @@
   </si>
   <si>
     <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>GadiNumber</t>
+  </si>
+  <si>
+    <t>Veh_No.</t>
+  </si>
+  <si>
+    <t>From  mainsheet</t>
   </si>
 </sst>
 </file>
@@ -552,18 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -786,7 +790,7 @@
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
@@ -808,40 +812,51 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
-        <v>62</v>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
